--- a/data/trans_dic/P64D$andando_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P64D$andando_2023-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1727939153685236</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.460439255379509</v>
+        <v>0.4604392553795091</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2713958477329539</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1171619382418759</v>
+        <v>0.107788834700873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3730947109928731</v>
+        <v>0.3587374692189423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2176617191168204</v>
+        <v>0.2208702577898518</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2603710250253168</v>
+        <v>0.2549243828969199</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5573477159819893</v>
+        <v>0.5583881097727946</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3331226074863382</v>
+        <v>0.3344768909158999</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.2226493560624541</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3739847288978208</v>
+        <v>0.3739847288978209</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2869978221249369</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1964756137603411</v>
+        <v>0.1970600913348363</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3471744967139308</v>
+        <v>0.3433120921166782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2687607061276158</v>
+        <v>0.2676074728274095</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2477740532711653</v>
+        <v>0.2500805089157764</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4019973076094781</v>
+        <v>0.4028233866631864</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3097423064368647</v>
+        <v>0.3071140691818359</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.3292430299609891</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2884641249054511</v>
+        <v>0.2884641249054512</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2061335264197582</v>
+        <v>0.2069692117648356</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2943192900322435</v>
+        <v>0.2896953600112064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2611422553642594</v>
+        <v>0.2605355444452327</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2886425719436539</v>
+        <v>0.293184138755154</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3699703998625673</v>
+        <v>0.3644495212595644</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3183003407426014</v>
+        <v>0.3165469080940485</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.2248221735486863</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3646418186317916</v>
+        <v>0.3646418186317917</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2862816746863491</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2049007708108198</v>
+        <v>0.203666922341754</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3438606769724668</v>
+        <v>0.3415021166037661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2697138823097612</v>
+        <v>0.271317101466962</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.245768149704872</v>
+        <v>0.2478203318437016</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.389470296402847</v>
+        <v>0.3879233622300483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3028807726846045</v>
+        <v>0.3028058670853052</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18879</v>
+        <v>17369</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>31357</v>
+        <v>30150</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>53367</v>
+        <v>54153</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>41955</v>
+        <v>41077</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46843</v>
+        <v>46930</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>81675</v>
+        <v>82007</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>247862</v>
+        <v>248599</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>323991</v>
+        <v>320387</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>589866</v>
+        <v>587335</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>312577</v>
+        <v>315487</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>375153</v>
+        <v>375924</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>679811</v>
+        <v>674043</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>98607</v>
+        <v>99006</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>139436</v>
+        <v>137245</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>248638</v>
+        <v>248061</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>138076</v>
+        <v>140248</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>175276</v>
+        <v>172660</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>303059</v>
+        <v>301390</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>389524</v>
+        <v>387179</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>512705</v>
+        <v>509188</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>914886</v>
+        <v>920325</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>467215</v>
+        <v>471116</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>580710</v>
+        <v>578403</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1027391</v>
+        <v>1027137</v>
       </c>
     </row>
     <row r="20">
